--- a/naoshili-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
+++ b/naoshili-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="14955" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <r>
+      <t>*</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>userId</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>*</t>
     </r>
     <r>
@@ -170,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -191,8 +199,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -201,7 +223,113 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,126 +344,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,19 +358,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,157 +502,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +549,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,15 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -588,6 +596,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,26 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,141 +669,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1161,37 +1172,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD$1:AD$1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="16" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="17" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="14.2222222222222" customWidth="1"/>
-    <col min="27" max="27" width="15.7777777777778" customWidth="1"/>
-    <col min="28" max="28" width="16.4444444444444" customWidth="1"/>
-    <col min="29" max="29" width="17.9074074074074" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.462962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.225" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8916666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="21.8916666666667" style="1" customWidth="1"/>
+    <col min="8" max="17" width="17.4416666666667" style="1" customWidth="1"/>
+    <col min="18" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="14.1083333333333" customWidth="1"/>
+    <col min="27" max="27" width="14.225" customWidth="1"/>
+    <col min="28" max="28" width="15.775" customWidth="1"/>
+    <col min="29" max="29" width="16.4416666666667" customWidth="1"/>
+    <col min="30" max="30" width="17.9083333333333" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.4666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:30">
+    <row r="1" ht="30" customHeight="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1200,142 +1211,145 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="25:28">
-      <c r="Y2" s="1"/>
+    <row r="2" spans="26:29">
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="25:28">
-      <c r="Y3" s="1"/>
+    <row r="3" spans="26:29">
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="25:28">
-      <c r="Y4" s="1"/>
+    <row r="4" spans="26:29">
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="25:28">
-      <c r="Y5" s="1"/>
+    <row r="5" spans="26:29">
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="25:28">
-      <c r="Y6" s="1"/>
+    <row r="6" spans="26:29">
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="25:28">
-      <c r="Y7" s="1"/>
+    <row r="7" spans="26:29">
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="25:29">
-      <c r="Y8" s="1"/>
+    <row r="8" spans="26:30">
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="6"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="25:28">
-      <c r="Y9" s="1"/>
+    <row r="9" spans="26:29">
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="25:28">
-      <c r="Y10" s="1"/>
+    <row r="10" spans="26:29">
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="25:28">
-      <c r="Y11" s="1"/>
+    <row r="11" spans="26:29">
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,7 +1367,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1370,7 +1384,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
